--- a/Examples/SCADA_reader/inputfile.xlsx
+++ b/Examples/SCADA_reader/inputfile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFD5014-E315-4B67-AD71-0CC2C2D78C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD725B-0E85-48AF-A65C-CD18FC6B586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36255" yWindow="1185" windowWidth="15510" windowHeight="6300" activeTab="4"/>
+    <workbookView xWindow="43200" yWindow="-1725" windowWidth="14400" windowHeight="17400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="HOST" sheetId="4" r:id="rId4"/>
     <sheet name="Settings" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>KeyName</t>
   </si>
@@ -62,24 +62,117 @@
     <t>D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader\SimulinkModels</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>ExcelPLCFileName</t>
+  </si>
+  <si>
+    <t>FlagGenerate_ITFC</t>
+  </si>
+  <si>
+    <t>FlagGenerate_PLCApps</t>
+  </si>
+  <si>
+    <t>SaveModelParametersFlag</t>
+  </si>
+  <si>
+    <t>sample_time</t>
+  </si>
+  <si>
+    <t>PLC_system</t>
+  </si>
+  <si>
+    <t>DataTypes_dict_filename</t>
+  </si>
+  <si>
+    <t>D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader\SVI_definition.xlsx</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Bachmann</t>
+  </si>
+  <si>
+    <t>dictionary_bachmann.xlsx</t>
+  </si>
+  <si>
+    <t>host_scada</t>
+  </si>
+  <si>
     <t>modelTag</t>
   </si>
   <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
     <t>PLCApp_folder</t>
   </si>
   <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
     <t>slmodel_folder</t>
   </si>
   <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
     <t>slmodel_name</t>
   </si>
   <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
     <t>slccode_folder</t>
   </si>
   <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
     <t>refC_name</t>
   </si>
   <si>
+    <t>avginflw</t>
+  </si>
+  <si>
+    <t>wfstatus</t>
+  </si>
+  <si>
+    <t>loadsprc</t>
+  </si>
+  <si>
     <t>Flag_Generate_PLC_app</t>
   </si>
   <si>
@@ -92,199 +185,67 @@
     <t>appTag</t>
   </si>
   <si>
+    <t>itfc_scada</t>
+  </si>
+  <si>
+    <t>itfc_mm</t>
+  </si>
+  <si>
+    <t>itfc_loads</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>itfc_scada</t>
+  </si>
+  <si>
+    <t>itfc_mm</t>
+  </si>
+  <si>
+    <t>itfc_loads</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>ifcscada</t>
+  </si>
+  <si>
+    <t>ifcmm</t>
+  </si>
+  <si>
+    <t>ifcloads</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
     <t>Flag_Create_test_ITFC</t>
   </si>
   <si>
     <t>test_ITFC_filename</t>
   </si>
   <si>
-    <t>FAST_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>SLOW_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>CTRL_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>out_filename</t>
-  </si>
-  <si>
-    <t>output_path_in_PLC</t>
-  </si>
-  <si>
-    <t>output_file_duration_s</t>
-  </si>
-  <si>
-    <t>ExcelPLCFileName</t>
-  </si>
-  <si>
-    <t>FlagGenerate_ITFC</t>
-  </si>
-  <si>
-    <t>FlagGenerate_PLCApps</t>
-  </si>
-  <si>
-    <t>SaveModelParametersFlag</t>
-  </si>
-  <si>
-    <t>sample_time</t>
-  </si>
-  <si>
-    <t>PLC_system</t>
-  </si>
-  <si>
-    <t>DataTypes_dict_filename</t>
-  </si>
-  <si>
-    <t>D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader\SVI_definition.xlsx</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Bachmann</t>
-  </si>
-  <si>
-    <t>dictionary_bachmann.xlsx</t>
-  </si>
-  <si>
-    <t>modelTag</t>
-  </si>
-  <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>host_scada</t>
   </si>
   <si>
     <t>PLCApp_folder</t>
   </si>
   <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
-  </si>
-  <si>
-    <t>slmodel_folder</t>
-  </si>
-  <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
-  </si>
-  <si>
-    <t>slmodel_name</t>
-  </si>
-  <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
-  </si>
-  <si>
-    <t>slccode_folder</t>
-  </si>
-  <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
+    <t>host_scada</t>
   </si>
   <si>
     <t>refC_name</t>
   </si>
   <si>
-    <t>avginflw</t>
-  </si>
-  <si>
-    <t>wfstatus</t>
-  </si>
-  <si>
-    <t>loadsprc</t>
-  </si>
-  <si>
-    <t>Flag_Generate_PLC_app</t>
-  </si>
-  <si>
-    <t>host_apptag</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>appTag</t>
-  </si>
-  <si>
-    <t>itfc_scada</t>
-  </si>
-  <si>
-    <t>itfc_mm</t>
-  </si>
-  <si>
-    <t>itfc_loads</t>
-  </si>
-  <si>
-    <t>PLCApp_folder</t>
-  </si>
-  <si>
-    <t>itfc_scada</t>
-  </si>
-  <si>
-    <t>itfc_mm</t>
-  </si>
-  <si>
-    <t>itfc_loads</t>
-  </si>
-  <si>
-    <t>refC_name</t>
-  </si>
-  <si>
-    <t>ifcscada</t>
-  </si>
-  <si>
-    <t>ifcmm</t>
-  </si>
-  <si>
-    <t>ifcloads</t>
-  </si>
-  <si>
-    <t>Flag_Generate_PLC_app</t>
-  </si>
-  <si>
-    <t>Flag_Create_test_ITFC</t>
-  </si>
-  <si>
-    <t>test_ITFC_filename</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>appTag</t>
-  </si>
-  <si>
-    <t>PLCApp_folder</t>
-  </si>
-  <si>
-    <t>refC_name</t>
+    <t>hstscada</t>
   </si>
   <si>
     <t>Flag_Generate_PLC_app</t>
@@ -335,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -343,15 +304,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +631,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -688,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -696,7 +655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -704,7 +663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -712,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -729,124 +688,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F341018-461F-48B8-A18A-DBBC553813FB}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.046875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.48828125" customWidth="true"/>
-    <col min="5" max="5" width="13.37890625" customWidth="true"/>
-    <col min="6" max="6" width="10.37890625" customWidth="true"/>
-    <col min="7" max="7" width="21.48828125" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="9.48828125" customWidth="true"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,94 +824,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.48828125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="21.48828125" customWidth="true"/>
-    <col min="5" max="5" width="19.6015625" customWidth="true"/>
-    <col min="6" max="6" width="17.15625" customWidth="true"/>
-    <col min="7" max="7" width="9.48828125" customWidth="true"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,45 +914,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD112A7-F932-45A7-AF31-D6D8B3E647C6}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -1007,11 +1008,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E3B99E-9ECC-485B-98E6-CBCBD1273F39}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,63 +1025,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/SCADA_reader/inputfile.xlsx
+++ b/Examples/SCADA_reader/inputfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD725B-0E85-48AF-A65C-CD18FC6B586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31A7C43-051B-43F7-837D-F8CD70DDE203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="-1725" windowWidth="14400" windowHeight="17400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Folders" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>KeyName</t>
   </si>
@@ -98,85 +98,133 @@
     <t>dictionary_bachmann.xlsx</t>
   </si>
   <si>
+    <t>modelTag</t>
+  </si>
+  <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
+    <t>PLCApp_folder</t>
+  </si>
+  <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
+    <t>slmodel_folder</t>
+  </si>
+  <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
+    <t>slmodel_name</t>
+  </si>
+  <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
+    <t>slccode_folder</t>
+  </si>
+  <si>
+    <t>avg_inflow</t>
+  </si>
+  <si>
+    <t>WF_status</t>
+  </si>
+  <si>
+    <t>loads_process</t>
+  </si>
+  <si>
+    <t>refC_name</t>
+  </si>
+  <si>
+    <t>avginflw</t>
+  </si>
+  <si>
+    <t>wfstatus</t>
+  </si>
+  <si>
+    <t>loadsprc</t>
+  </si>
+  <si>
+    <t>Flag_Generate_PLC_app</t>
+  </si>
+  <si>
+    <t>host_apptag</t>
+  </si>
+  <si>
     <t>host_scada</t>
   </si>
   <si>
-    <t>modelTag</t>
-  </si>
-  <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>appTag</t>
+  </si>
+  <si>
+    <t>itfc_scada</t>
+  </si>
+  <si>
+    <t>itfc_mm</t>
+  </si>
+  <si>
+    <t>itfc_loads</t>
   </si>
   <si>
     <t>PLCApp_folder</t>
   </si>
   <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
-  </si>
-  <si>
-    <t>slmodel_folder</t>
-  </si>
-  <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
-  </si>
-  <si>
-    <t>slmodel_name</t>
-  </si>
-  <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
-  </si>
-  <si>
-    <t>slccode_folder</t>
-  </si>
-  <si>
-    <t>avg_inflow</t>
-  </si>
-  <si>
-    <t>WF_status</t>
-  </si>
-  <si>
-    <t>loads_process</t>
+    <t>itfc_scada</t>
+  </si>
+  <si>
+    <t>itfc_mm</t>
+  </si>
+  <si>
+    <t>itfc_loads</t>
   </si>
   <si>
     <t>refC_name</t>
   </si>
   <si>
-    <t>avginflw</t>
-  </si>
-  <si>
-    <t>wfstatus</t>
-  </si>
-  <si>
-    <t>loadsprc</t>
+    <t>ifcscada</t>
+  </si>
+  <si>
+    <t>ifcmm</t>
+  </si>
+  <si>
+    <t>ifcloads</t>
   </si>
   <si>
     <t>Flag_Generate_PLC_app</t>
   </si>
   <si>
-    <t>host_apptag</t>
+    <t>Flag_Create_test_ITFC</t>
+  </si>
+  <si>
+    <t>test_ITFC_filename</t>
   </si>
   <si>
     <t>Comment</t>
@@ -185,98 +233,65 @@
     <t>appTag</t>
   </si>
   <si>
-    <t>itfc_scada</t>
-  </si>
-  <si>
-    <t>itfc_mm</t>
-  </si>
-  <si>
-    <t>itfc_loads</t>
+    <t>host_scada</t>
   </si>
   <si>
     <t>PLCApp_folder</t>
   </si>
   <si>
-    <t>itfc_scada</t>
-  </si>
-  <si>
-    <t>itfc_mm</t>
-  </si>
-  <si>
-    <t>itfc_loads</t>
+    <t>host_scada</t>
   </si>
   <si>
     <t>refC_name</t>
   </si>
   <si>
-    <t>ifcscada</t>
-  </si>
-  <si>
-    <t>ifcmm</t>
-  </si>
-  <si>
-    <t>ifcloads</t>
+    <t>hstscada</t>
   </si>
   <si>
     <t>Flag_Generate_PLC_app</t>
   </si>
   <si>
-    <t>Flag_Create_test_ITFC</t>
-  </si>
-  <si>
-    <t>test_ITFC_filename</t>
+    <t>FAST_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>SLOW_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>CTRL_FREQ_RATIO</t>
+  </si>
+  <si>
+    <t>out_filename</t>
+  </si>
+  <si>
+    <t>host_scada</t>
+  </si>
+  <si>
+    <t>output_path_in_PLC</t>
+  </si>
+  <si>
+    <t>/usbBulk0/SCADA/</t>
+  </si>
+  <si>
+    <t>output_file_duration_s</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>appTag</t>
-  </si>
-  <si>
-    <t>host_scada</t>
-  </si>
-  <si>
-    <t>PLCApp_folder</t>
-  </si>
-  <si>
-    <t>host_scada</t>
-  </si>
-  <si>
-    <t>refC_name</t>
-  </si>
-  <si>
-    <t>hstscada</t>
-  </si>
-  <si>
-    <t>Flag_Generate_PLC_app</t>
-  </si>
-  <si>
-    <t>FAST_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>SLOW_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>CTRL_FREQ_RATIO</t>
-  </si>
-  <si>
-    <t>out_filename</t>
-  </si>
-  <si>
-    <t>output_path_in_PLC</t>
-  </si>
-  <si>
-    <t>output_file_duration_s</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>./Examples/SCADA_reader/itfc_scada.mat</t>
+  </si>
+  <si>
+    <t>./Examples/SCADA_reader/itfc_mm.mat</t>
+  </si>
+  <si>
+    <t>./Examples/SCADA_reader/itfc_loads.mat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -629,9 +644,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -647,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -655,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -663,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -671,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -692,7 +707,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="13.6640625" customWidth="1"/>
@@ -704,111 +719,111 @@
     <col min="9" max="9" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -820,20 +835,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC64111-CB20-45D6-9177-3C48F6E7110A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -856,7 +873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -867,13 +884,16 @@
         <v>61</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -884,13 +904,16 @@
         <v>62</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -901,10 +924,13 @@
         <v>63</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -916,11 +942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD112A7-F932-45A7-AF31-D6D8B3E647C6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -935,7 +961,7 @@
     <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -961,16 +987,16 @@
         <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -981,7 +1007,7 @@
         <v>73</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -993,10 +1019,13 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
       </c>
       <c r="J2">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1012,12 +1041,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1060,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1068,7 +1097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
